--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSMLearning\ProAIBI\backend\ai-bi\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSMLearning\ProAIBI\ai-bi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD411398-6F8B-4C83-89C4-C7FB38057DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636AAF46-3634-447F-A0E9-A4B2D496E1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鞋子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,6 +40,18 @@
   </si>
   <si>
     <t>汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一月份价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二月份价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三月份价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,44 +377,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>120</v>
       </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>500</v>
       </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>480</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>200000</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>79800</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSMLearning\ProAIBI\ai-bi\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSMLearning\project-code\ai-bi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636AAF46-3634-447F-A0E9-A4B2D496E1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61488D8-37D2-46FD-89B1-F6231EA5E809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一月份价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二月份价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三月份价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>指标</t>
+  </si>
+  <si>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>年末总人口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>男性人口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>女性人口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>城镇人口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>乡村人口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +288,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +323,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,71 +611,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2">
+        <v>140967</v>
+      </c>
+      <c r="C2" s="2">
+        <v>141175</v>
+      </c>
+      <c r="D2" s="2">
+        <v>141260</v>
+      </c>
+      <c r="E2" s="2">
+        <v>141212</v>
+      </c>
+      <c r="F2" s="2">
+        <v>141008</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>72032</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72206</v>
+      </c>
+      <c r="D3" s="2">
+        <v>72311</v>
+      </c>
+      <c r="E3" s="2">
+        <v>72357</v>
+      </c>
+      <c r="F3" s="2">
+        <v>72039</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
-        <v>450</v>
-      </c>
-      <c r="D3">
-        <v>480</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>68935</v>
+      </c>
+      <c r="C4" s="2">
+        <v>68969</v>
+      </c>
+      <c r="D4" s="2">
+        <v>68949</v>
+      </c>
+      <c r="E4" s="2">
+        <v>68855</v>
+      </c>
+      <c r="F4" s="2">
+        <v>68969</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>200000</v>
-      </c>
-      <c r="C4">
-        <v>100000</v>
-      </c>
-      <c r="D4">
-        <v>79800</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>93267</v>
+      </c>
+      <c r="C5" s="2">
+        <v>92071</v>
+      </c>
+      <c r="D5" s="2">
+        <v>91425</v>
+      </c>
+      <c r="E5" s="2">
+        <v>90220</v>
+      </c>
+      <c r="F5" s="2">
+        <v>88426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>47700</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49104</v>
+      </c>
+      <c r="D6" s="2">
+        <v>49835</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50992</v>
+      </c>
+      <c r="F6" s="2">
+        <v>52582</v>
       </c>
     </row>
   </sheetData>
